--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD91AB2-280B-4299-A5B9-476D9349356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32886FB-B5FD-4998-9433-3B9D0CE08DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1747,6 +1747,15 @@
   </si>
   <si>
     <t>Semih</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>sdfd</t>
+  </si>
+  <si>
+    <t>fsd</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4890,27 +4899,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32886FB-B5FD-4998-9433-3B9D0CE08DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C960CF0-8C97-44A0-9812-A821466BD580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,25 +1743,23 @@
     <t>Zimbabve</t>
   </si>
   <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>sdfd</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
     <t>Nufus</t>
-  </si>
-  <si>
-    <t>Semih</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t>sdfd</t>
-  </si>
-  <si>
-    <t>fsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1812,7 +1810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1872,20 +1870,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1909,9 +1898,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2196,13 +2182,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2219,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2246,7 +2232,7 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -2263,9 +2249,6 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>574</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -2424,7 +2407,7 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <v>54000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4901,7 +4884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4909,17 +4892,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
